--- a/CashFlow/BR_cashflow.xlsx
+++ b/CashFlow/BR_cashflow.xlsx
@@ -882,19 +882,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>144100000.0</v>
+        <v>480300000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>99200000.0</v>
+        <v>441300000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>129300000.0</v>
+        <v>130800000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>21500000.0</v>
+        <v>93700000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-7500000.0</v>
+        <v>50000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-2100000.0</v>
